--- a/auto_calc/calc.xlsx
+++ b/auto_calc/calc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -354,172 +354,252 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1">
         <v>1100</v>
       </c>
       <c r="B1">
         <v>-427</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1">
+        <f>SUM(A1:B1)</f>
+        <v>673</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>864</v>
       </c>
       <c r="B2">
         <v>279</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <f t="shared" ref="C2:C20" si="0">SUM(A2:B2)</f>
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>65</v>
       </c>
       <c r="B3">
         <v>1296</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>200</v>
       </c>
       <c r="B4">
         <v>-173</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>1792</v>
       </c>
       <c r="B5">
         <v>-863</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>929</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>790</v>
       </c>
       <c r="B6">
         <v>398</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>549</v>
       </c>
       <c r="B7">
         <v>276</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>825</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>512</v>
       </c>
       <c r="B8">
         <v>1024</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>777</v>
       </c>
       <c r="B9">
         <v>777</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>1500</v>
       </c>
       <c r="B10">
         <v>-369</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>845</v>
       </c>
       <c r="B11">
         <v>846</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>798</v>
       </c>
       <c r="B12">
         <v>-659</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>1432</v>
       </c>
       <c r="B13">
         <v>-146</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>78</v>
       </c>
       <c r="B14">
         <v>1846</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>555</v>
       </c>
       <c r="B15">
         <v>666</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>1111</v>
       </c>
       <c r="B16">
         <v>-222</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>889</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>384</v>
       </c>
       <c r="B17">
         <v>575</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>959</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>1000</v>
       </c>
       <c r="B18">
         <v>-649</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>827</v>
       </c>
       <c r="B19">
         <v>-438</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>389</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>979</v>
       </c>
       <c r="B20">
         <v>979</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>1958</v>
       </c>
     </row>
   </sheetData>
@@ -533,7 +613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -542,201 +622,201 @@
     <row r="1" spans="1:2">
       <c r="A1">
         <f ca="1">RANDBETWEEN(0,2000)</f>
-        <v>879</v>
+        <v>422</v>
       </c>
       <c r="B1">
         <f ca="1">RANDBETWEEN(0,2000)</f>
-        <v>1616</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
         <f ca="1">RANDBETWEEN(0,2000)</f>
-        <v>1380</v>
+        <v>1445</v>
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B20" ca="1" si="0">RANDBETWEEN(0,2000)</f>
-        <v>1323</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
         <f t="shared" ref="A3:A20" ca="1" si="1">RANDBETWEEN(0,2000)</f>
-        <v>1309</v>
+        <v>415</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>1509</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>1802</v>
+        <v>654</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>1066</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>856</v>
+        <v>295</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>553</v>
+        <v>464</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>1239</v>
+        <v>975</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>1093</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>1682</v>
+        <v>729</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>1020</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>971</v>
+        <v>567</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>1014</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>117</v>
+        <v>1126</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>1551</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>358</v>
+        <v>1740</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>1613</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>849</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>711</v>
+        <v>908</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>1417</v>
+        <v>1491</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>1165</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>1278</v>
+        <v>722</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>1412</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>447</v>
+        <v>1436</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>671</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>1322</v>
+        <v>1131</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>411</v>
+        <v>860</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>216</v>
+        <v>1703</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>862</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>1979</v>
+        <v>1532</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>1223</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>286</v>
+        <v>591</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>1826</v>
+        <v>953</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>1342</v>
+        <v>171</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>1361</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
         <f t="shared" ca="1" si="1"/>
-        <v>1447</v>
+        <v>257</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>654</v>
+        <v>1538</v>
       </c>
     </row>
   </sheetData>
